--- a/biology/Botanique/Corbeille_d'argent/Corbeille_d'argent.xlsx
+++ b/biology/Botanique/Corbeille_d'argent/Corbeille_d'argent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corbeille_d%27argent</t>
+          <t>Corbeille_d'argent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -493,7 +505,7 @@
 Cerastium tomentosum, le céraiste cotonneux (celui-ci appartient à la famille des Caryophyllacées)
 Iberis sempervirens, l'ibéris toujours vert
 Lobularia maritima ou Alyssum maritimum, l'alysson maritime
-La Corbeille d'argent à gros fruits, ou Alysse à gros fruits, est protégée sur tout le territoire français de métropole[1].
+La Corbeille d'argent à gros fruits, ou Alysse à gros fruits, est protégée sur tout le territoire français de métropole.
 La Corbeille d'argent des Pyrénées (Hormathophylla pyrenaica) est une espèce endémique du mont Coronat, dans les Pyrénées.
 			arabette des Alpes.
 			arabette du Caucase.
